--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AB/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AB/20/seed5/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.001299999999994</v>
+        <v>5.991199999999991</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -499,7 +499,7 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>5.046100000000006</v>
+        <v>4.920200000000002</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>6.513000000000001</v>
+        <v>6.579800000000001</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.562899999999996</v>
+        <v>5.379199999999997</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.75910000000002</v>
+        <v>-21.93510000000002</v>
       </c>
       <c r="B11" t="n">
         <v>6.01</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.7229</v>
+        <v>-22.66790000000001</v>
       </c>
       <c r="B12" t="n">
-        <v>5.854499999999998</v>
+        <v>5.822099999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>8.748500000000002</v>
+        <v>8.657300000000006</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.43360000000002</v>
+        <v>-21.36810000000002</v>
       </c>
       <c r="B15" t="n">
         <v>5.53</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>5.487600000000003</v>
+        <v>5.753100000000003</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
